--- a/biology/Botanique/Boletochaete/Boletochaete.xlsx
+++ b/biology/Botanique/Boletochaete/Boletochaete.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletochaete est un genre de champignons de la famille des Boletaceae. Il regroupe trois espèces de champignons des régions tropicales de l'Asie du Sud-Est.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletochaete Singer 1944
 </t>
@@ -542,7 +556,9 @@
           <t>Description du Sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporophore : chapeau velours, de couleur bai. Tubes gris.
 Stipe brunâtre, presque lisse. Chair blanche, immuable.
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois espèces connues des régions paléotropique : Afrique, Asie du Sud-Est : Chine Guandung, Malaisie.
 La mycorhize n'est pas déterminée avec certitude, éventuellement avec la végétation cisalpine et les Diptérocarpacées.
@@ -607,7 +625,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boletochaete bicolor (Massee) Singer
 Boletochaete setulosa M. Zang. HS. AS. MZ.
@@ -639,7 +659,9 @@
           <t>Anciens taxons</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boletochaete brunneosetosa Singer
 Boletochaete calocystis Heinem. &amp; Gooss.-Font.
@@ -672,9 +694,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 octobre 2013)[1] et Index Fungorum                                      (28 octobre 2013)[2] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 octobre 2013) et Index Fungorum                                      (28 octobre 2013) :
 Boletochaete bicolor Singer 1986
 Boletochaete setulosa M. Zang 1986
 Boletochaete spinifera (Pat. &amp; C.F. Baker) Singer 1944</t>
